--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Collin Sexton</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
@@ -640,68 +640,68 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Scoot Henderson</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jaden Ivey</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Jaden Ivey</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Collin Sexton</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
@@ -725,32 +725,15 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF,PF</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
-        <is>
-          <t>Memphis Grizzlies</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Paul George</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SG,SF,PF</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>Philadelphia 76ers</t>
         </is>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Collin Sexton</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
@@ -538,17 +538,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,75 +633,75 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Collin Sexton</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jaden Ivey</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
@@ -725,17 +725,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Jaden Ivey</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SG,SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -521,68 +521,68 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SG,SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P.J. Washington Jr.</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
@@ -657,51 +657,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SG,SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -504,51 +504,51 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG,SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
@@ -657,51 +657,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SG,SF,PF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -470,17 +470,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Collin Sexton</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF,PF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Alex Caruso</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,24 +531,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
@@ -657,34 +657,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Collin Sexton</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -470,17 +470,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Collin Sexton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alex Caruso</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,24 +531,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
@@ -589,24 +589,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Ivica Zubac</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ivica Zubac</t>
+          <t>Wendell Carter Jr.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
@@ -657,102 +657,102 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Collin Sexton</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Wendell Carter Jr.</t>
+          <t>Aaron Gordon</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aaron Gordon</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF,PF</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jaden Ivey</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
@@ -521,34 +521,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wendell Carter Jr.</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
@@ -657,51 +657,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Jaden Ivey</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Wendell Carter Jr.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Jaden Ivey</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,41 +548,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
@@ -640,102 +640,102 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jaden Ivey</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wendell Carter Jr.</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aaron Gordon</t>
+          <t>Wendell Carter Jr.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Aaron Gordon</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -470,17 +470,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Collin Sexton</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
@@ -538,17 +538,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
@@ -657,51 +657,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Collin Sexton</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Harrison Barnes</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
     </row>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -470,17 +470,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Collin Sexton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
@@ -538,17 +538,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
     </row>
@@ -657,51 +657,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Collin Sexton</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Harrison Barnes</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -470,51 +470,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Collin Sexton</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Ziaire Williams</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
@@ -538,17 +538,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,41 +667,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Collin Sexton</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
     </row>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -453,177 +453,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jaden Ivey</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Collin Sexton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Jaden Ivey</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ivica Zubac</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Jusuf Nurkic</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,14 +633,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,58 +650,58 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Ivica Zubac</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Collin Sexton</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -538,17 +538,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
@@ -589,24 +589,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Jusuf Nurkic</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jusuf Nurkic</t>
+          <t>Ivica Zubac</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ivica Zubac</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
@@ -691,34 +691,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Wendell Carter Jr.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Wendell Carter Jr.</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF,PF</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SG,SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
     </row>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -37,72 +37,72 @@
     <t>Jaden Ivey</t>
   </si>
   <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Malik Monk</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Malik Monk</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
   </si>
   <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
@@ -115,40 +115,40 @@
     <t>Detroit Pistons</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -594,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -605,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -671,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -685,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -704,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -37,45 +37,45 @@
     <t>Jaden Ivey</t>
   </si>
   <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Malik Monk</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
     <t>Draymond Green</t>
   </si>
   <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
-    <t>Paul George</t>
-  </si>
-  <si>
     <t>Aaron Gordon</t>
   </si>
   <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
@@ -91,13 +91,16 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
+    <t>SF</t>
   </si>
   <si>
     <t>PF</t>
@@ -115,34 +118,31 @@
     <t>Detroit Pistons</t>
   </si>
   <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
@@ -531,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -542,7 +542,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -553,7 +553,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -564,7 +564,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -575,7 +575,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -608,7 +608,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,7 +619,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,7 +630,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -674,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,51 +28,48 @@
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
     <t>Collin Sexton</t>
   </si>
   <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
     <t>Draymond Green</t>
   </si>
   <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
     <t>Khris Middleton</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -97,9 +97,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -109,43 +106,40 @@
     <t>Houston Rockets</t>
   </si>
   <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Washington Wizards</t>
@@ -506,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -564,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -575,7 +569,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -586,7 +580,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +591,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -608,7 +602,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,7 +613,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,7 +635,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -652,7 +646,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -682,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -707,18 +701,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,121 +28,118 @@
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
+    <t>Khris Middleton</t>
   </si>
   <si>
     <t>Draymond Green</t>
   </si>
   <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
   </si>
 </sst>
 </file>
@@ -525,7 +522,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,7 +533,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +673,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,7 +687,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,60 +25,66 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
     <t>Collin Sexton</t>
   </si>
   <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
     <t>Khris Middleton</t>
   </si>
   <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
     <t>Draymond Green</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -94,52 +100,52 @@
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
     <t>Utah Jazz</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
+    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +701,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,60 +25,60 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
   </si>
   <si>
     <t>Paul George</t>
   </si>
   <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -94,58 +94,58 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF</t>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -572,7 +572,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +583,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +627,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +638,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,7 +660,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,7 +671,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,7 +704,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,127 +25,127 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Gradey Dick</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
     <t>Tyus Jones</t>
   </si>
   <si>
-    <t>Buddy Hield</t>
+    <t>Fred VanVleet</t>
   </si>
   <si>
     <t>Jaden Ivey</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
   </si>
   <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Paul George</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
+    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -635,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -657,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -701,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -712,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,127 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
     <t>Collin Sexton</t>
   </si>
   <si>
     <t>Buddy Hield</t>
   </si>
   <si>
-    <t>Gradey Dick</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
   </si>
   <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
+    <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
   </si>
 </sst>
 </file>
@@ -503,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -591,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -602,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -613,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -624,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -635,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -646,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -668,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -682,7 +676,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,21 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,63 +25,63 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Miles McBride</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
     <t>Tyus Jones</t>
   </si>
   <si>
+    <t>James Harden</t>
+  </si>
+  <si>
     <t>Jaden Ivey</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
@@ -94,10 +94,40 @@
     <t>C</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SF</t>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
@@ -106,40 +136,13 @@
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Utah Jazz</t>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -541,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -552,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -632,7 +635,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -695,10 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -37,69 +37,69 @@
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
     <t>Paul George</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
   </si>
   <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>New York Knicks</t>
   </si>
   <si>
@@ -112,27 +112,30 @@
     <t>Houston Rockets</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
@@ -140,9 +143,6 @@
   </si>
   <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
   </si>
 </sst>
 </file>
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +668,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Miles McBride</t>
+    <t>Jaden Ivey</t>
   </si>
   <si>
     <t>Anfernee Simons</t>
@@ -37,45 +37,42 @@
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -100,7 +97,7 @@
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>New York Knicks</t>
+    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
@@ -112,37 +109,34 @@
     <t>Houston Rockets</t>
   </si>
   <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -500,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +673,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,21 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,115 +25,130 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
     <t>Jaden Ivey</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
+    <t>Giannis Antetokounmpo</t>
   </si>
   <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
@@ -494,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +531,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +542,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +553,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +564,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +575,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +586,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +608,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +619,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +630,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +641,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +652,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +663,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +674,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,7 +688,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +696,32 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,13 +25,37 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
   </si>
   <si>
     <t>Rui Hachimura</t>
@@ -40,33 +64,9 @@
     <t>Paul George</t>
   </si>
   <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
     <t>Jaden Ivey</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
@@ -79,64 +79,64 @@
     <t>Andrew Wiggins</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
@@ -542,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -553,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -589,7 +589,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -600,7 +600,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -608,10 +608,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,10 +619,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,10 +630,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,10 +641,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -652,10 +652,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -663,10 +663,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -674,10 +674,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -696,7 +696,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -718,7 +718,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
     <t>Khris Middleton</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
     <t>Paul George</t>
   </si>
   <si>
     <t>Jaden Ivey</t>
   </si>
   <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
@@ -79,70 +79,70 @@
     <t>Andrew Wiggins</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
+    <t>C</t>
   </si>
   <si>
     <t>SF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -553,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -586,10 +586,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -608,10 +608,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,10 +630,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -644,7 +644,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -652,10 +652,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -663,10 +663,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -674,7 +674,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -718,7 +718,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,133 +25,127 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
   </si>
 </sst>
 </file>
@@ -509,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -542,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -553,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -564,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -575,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -586,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -608,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -622,7 +616,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -652,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -663,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -674,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -685,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -696,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -707,21 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,124 +28,127 @@
     <t>James Harden</t>
   </si>
   <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
     <t>Jaden Ivey</t>
   </si>
   <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
     <t>LA Clippers</t>
   </si>
   <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +528,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,10 +539,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -701,10 +704,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
     <t>James Harden</t>
   </si>
   <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
+    <t>Nicolas Claxton</t>
   </si>
   <si>
     <t>Ivica Zubac</t>
   </si>
   <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Bobby Portis</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
@@ -79,67 +79,67 @@
     <t>Jaden Ivey</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>LA Clippers</t>
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -550,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -564,7 +564,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -638,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -649,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -660,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -671,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -682,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,49 +25,49 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
     <t>Paul George</t>
   </si>
   <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
     <t>Bobby Portis</t>
   </si>
   <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
     <t>Clint Capela</t>
   </si>
   <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
     <t>Aaron Gordon</t>
   </si>
   <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
+    <t>Scotty Pippen Jr.</t>
   </si>
   <si>
     <t>Zion Williamson</t>
@@ -79,67 +79,64 @@
     <t>Jaden Ivey</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -550,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -564,7 +561,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -575,7 +572,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,7 +616,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -638,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -685,7 +682,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -707,7 +704,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,127 +25,127 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Bennedict Mathurin</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
     <t>Tyus Jones</t>
   </si>
   <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
     <t>Paul George</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
   </si>
   <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>Bobby Portis</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Scotty Pippen Jr.</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
+    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,7 +561,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,7 +572,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -657,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,7 +704,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,7 +715,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -28,48 +28,48 @@
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Bennedict Mathurin</t>
+  </si>
+  <si>
     <t>Dillon Brooks</t>
   </si>
   <si>
-    <t>Bennedict Mathurin</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
     <t>Bobby Portis</t>
   </si>
   <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
@@ -82,64 +82,64 @@
     <t>PG</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
     <t>Houston Rockets</t>
   </si>
   <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
     <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -539,7 +539,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -712,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,15 +25,15 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
     <t>James Harden</t>
   </si>
   <si>
@@ -49,25 +49,25 @@
     <t>Andrew Wiggins</t>
   </si>
   <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
     <t>Ivica Zubac</t>
   </si>
   <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
     <t>Aaron Gordon</t>
   </si>
   <si>
-    <t>Bennedict Mathurin</t>
-  </si>
-  <si>
     <t>Dillon Brooks</t>
   </si>
   <si>
-    <t>Bobby Portis</t>
+    <t>Dennis Schröder</t>
   </si>
   <si>
     <t>Zion Williamson</t>
@@ -94,24 +94,24 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
     <t>LA Clippers</t>
   </si>
   <si>
@@ -130,16 +130,13 @@
     <t>Memphis Grizzlies</t>
   </si>
   <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -616,7 +613,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +635,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -671,7 +668,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,7 +701,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,72 +25,75 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Tyus Jones</t>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Kentavious Caldwell-Pope</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
   </si>
   <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Zach Edey</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
   </si>
   <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Bobby Portis</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -100,49 +103,43 @@
     <t>C</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
   </si>
 </sst>
 </file>
@@ -544,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -555,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -566,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -577,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -588,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -599,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -610,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -621,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -654,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,75 +28,69 @@
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Zach Edey</t>
+  </si>
+  <si>
     <t>Kentavious Caldwell-Pope</t>
   </si>
   <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
   </si>
   <si>
     <t>Jonathan Kuminga</t>
   </si>
   <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Zach Edey</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG,SG</t>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
@@ -106,37 +100,31 @@
     <t>Houston Rockets</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
     <t>Orlando Magic</t>
   </si>
   <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
     <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -497,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +617,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +639,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +650,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +672,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,21 +683,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,57 +25,60 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Zach Edey</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
     <t>Amen Thompson</t>
   </si>
   <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Zach Edey</t>
-  </si>
-  <si>
-    <t>Kentavious Caldwell-Pope</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
     <t>Jonathan Kuminga</t>
   </si>
   <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
@@ -85,46 +88,49 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
   </si>
   <si>
     <t>Houston Rockets</t>
   </si>
   <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -485,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -518,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -529,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -540,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,7 +560,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,7 +571,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -584,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -606,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -617,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -628,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -639,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,7 +659,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -661,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,7 +681,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -683,10 +689,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,115 +25,115 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
     <t>Scoot Henderson</t>
   </si>
   <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
     <t>Paul George</t>
   </si>
   <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Zach Edey</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -535,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +571,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -645,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -700,10 +700,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,115 +25,112 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
     <t>Amen Thompson</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>James Harden</t>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
   </si>
   <si>
     <t>Paul George</t>
   </si>
   <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
 </sst>
 </file>
@@ -516,7 +513,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -546,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -557,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -579,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +645,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,10 +686,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -700,10 +697,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,48 +25,48 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Bobby Portis</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
@@ -100,25 +100,25 @@
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
     <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Washington Wizards</t>
@@ -587,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -620,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -653,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,63 +25,63 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
+    <t>Paul George</t>
+  </si>
+  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>James Harden</t>
+  </si>
+  <si>
     <t>Dillon Brooks</t>
   </si>
   <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>Bobby Portis</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
     <t>Jonathan Kuminga</t>
   </si>
   <si>
     <t>Jerami Grant</t>
   </si>
   <si>
-    <t>Paul George</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
@@ -97,40 +97,37 @@
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
   </si>
   <si>
     <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
 </sst>
 </file>
@@ -488,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,7 +521,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -557,7 +554,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,7 +565,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -590,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +617,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +639,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -664,7 +661,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -678,7 +675,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,18 +686,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
         <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -37,6 +37,30 @@
     <t>James Harden</t>
   </si>
   <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
     <t>Dillon Brooks</t>
   </si>
   <si>
@@ -46,36 +70,15 @@
     <t>Anthony Edwards</t>
   </si>
   <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
   </si>
   <si>
     <t>Draymond Green</t>
   </si>
   <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -85,12 +88,15 @@
     <t>PG</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -109,6 +115,21 @@
     <t>LA Clippers</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
@@ -116,18 +137,6 @@
   </si>
   <si>
     <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
 </sst>
 </file>
@@ -485,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -518,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -529,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -540,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -551,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -562,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -573,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -584,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -595,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -606,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -617,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -628,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -639,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -650,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -661,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -672,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -683,10 +692,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
     <t>Bilal Coulibaly</t>
   </si>
   <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
     <t>Jonathan Kuminga</t>
   </si>
   <si>
@@ -79,61 +79,61 @@
     <t>Draymond Green</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PG</t>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
     <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
@@ -549,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -563,7 +563,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +574,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -670,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -681,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -692,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,112 +28,112 @@
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
     <t>Paul George</t>
   </si>
   <si>
-    <t>James Harden</t>
-  </si>
-  <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
-    <t>Dillon Brooks</t>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
   </si>
   <si>
     <t>Zion Williamson</t>
   </si>
   <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
@@ -494,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -637,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -648,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -659,7 +659,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -681,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -692,21 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -34,72 +34,75 @@
     <t>James Harden</t>
   </si>
   <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
@@ -109,34 +112,40 @@
     <t>LA Clippers</t>
   </si>
   <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
   </si>
 </sst>
 </file>
@@ -494,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,7 +572,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +594,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,7 +627,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +638,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +693,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +701,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -40,36 +40,36 @@
     <t>Amen Thompson</t>
   </si>
   <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
     <t>Ivica Zubac</t>
   </si>
   <si>
-    <t>Mason Plumlee</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
     <t>Jonathan Kuminga</t>
   </si>
   <si>
@@ -88,6 +88,9 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
@@ -97,9 +100,6 @@
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
@@ -115,37 +115,37 @@
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
+    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -635,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -660,7 +660,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,7 +671,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -701,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,7 +715,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -37,39 +37,39 @@
     <t>Anthony Edwards</t>
   </si>
   <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
     <t>Amen Thompson</t>
   </si>
   <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
+    <t>Jaren Jackson Jr.</t>
   </si>
   <si>
     <t>Zion Williamson</t>
   </si>
   <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
     <t>Jonathan Kuminga</t>
   </si>
   <si>
@@ -115,31 +115,31 @@
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
     <t>Orlando Magic</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
@@ -572,7 +572,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +627,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,7 +671,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -704,7 +704,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,60 +25,60 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -88,64 +88,64 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Houston Rockets</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,7 +539,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +627,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,7 +649,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -701,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -46,21 +46,21 @@
     <t>Bradley Beal</t>
   </si>
   <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
     <t>Wendell Carter Jr.</t>
   </si>
   <si>
@@ -97,12 +97,12 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
@@ -121,16 +121,16 @@
     <t>Dallas Mavericks</t>
   </si>
   <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
   </si>
   <si>
     <t>Orlando Magic</t>
@@ -616,7 +616,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +638,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -701,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,57 +28,57 @@
     <t>Tyus Jones</t>
   </si>
   <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Jaylin Williams</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
   </si>
   <si>
     <t>Ivica Zubac</t>
   </si>
   <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -91,61 +91,64 @@
     <t>PF</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
+    <t>SG,SF,PF</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
   </si>
 </sst>
 </file>
@@ -594,7 +597,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +608,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,10 +715,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,7 +25,7 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Tyus Jones</t>
+    <t>Anfernee Simons</t>
   </si>
   <si>
     <t>Keyonte George</t>
@@ -37,118 +37,118 @@
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
     <t>Amen Thompson</t>
   </si>
   <si>
     <t>P.J. Washington</t>
   </si>
   <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
+    <t>Jaylin Williams</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
   </si>
   <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Jaylin Williams</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -572,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,7 +641,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -663,7 +663,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -718,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,49 +25,49 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Jaylin Williams</t>
+    <t>Donovan Clingan</t>
   </si>
   <si>
     <t>Jonathan Kuminga</t>
@@ -76,18 +76,21 @@
     <t>Goga Bitadze</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
+    <t>Luguentz Dort</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
@@ -97,58 +100,55 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -583,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -594,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -605,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -616,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -627,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -649,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -704,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,130 +25,127 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Donovan Clingan</t>
+  </si>
+  <si>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
   </si>
   <si>
     <t>Paul George</t>
   </si>
   <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Donovan Clingan</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Luguentz Dort</t>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
 </sst>
 </file>
@@ -561,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,6 +25,9 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>James Harden</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
@@ -46,30 +49,27 @@
     <t>P.J. Washington</t>
   </si>
   <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
     <t>Donovan Clingan</t>
   </si>
   <si>
     <t>Robert Williams III</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
     <t>Jonathan Kuminga</t>
   </si>
   <si>
@@ -79,6 +79,9 @@
     <t>Paul George</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
@@ -100,10 +106,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
+    <t>LA Clippers</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
@@ -124,19 +127,16 @@
     <t>Dallas Mavericks</t>
   </si>
   <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
@@ -558,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -701,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -712,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -49,33 +49,30 @@
     <t>P.J. Washington</t>
   </si>
   <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Moussa Diabate</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Donovan Clingan</t>
-  </si>
-  <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
     <t>Jonathan Kuminga</t>
   </si>
   <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
     <t>Paul George</t>
   </si>
   <si>
@@ -127,22 +124,25 @@
     <t>Dallas Mavericks</t>
   </si>
   <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,20 +701,9 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
         <v>43</v>
       </c>
     </row>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,48 +25,48 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
     <t>James Harden</t>
   </si>
   <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Moussa Diabate</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
@@ -79,64 +79,64 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>LA Clippers</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
   </si>
   <si>
     <t>Milwaukee Bucks</t>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -701,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,55 +25,61 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
     <t>Keyonte George</t>
   </si>
   <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
     <t>Amen Thompson</t>
   </si>
   <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Paul George</t>
   </si>
   <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Paul George</t>
+    <t>PG,SG,SF</t>
   </si>
   <si>
     <t>PG,SG</t>
@@ -85,22 +91,52 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Utah Jazz</t>
@@ -109,43 +145,13 @@
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
 </sst>
 </file>
@@ -503,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +531,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,10 +542,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +553,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +564,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +575,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +586,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,7 +600,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +608,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +619,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +630,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +641,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +652,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +663,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +674,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +685,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,7 +699,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,10 +707,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -28,57 +28,57 @@
     <t>Bradley Beal</t>
   </si>
   <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Paul George</t>
   </si>
   <si>
     <t>Zion Williamson</t>
   </si>
   <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
@@ -94,64 +94,64 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -600,7 +600,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,7 +611,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,10 +619,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,10 +630,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,10 +641,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -652,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
@@ -663,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -674,10 +674,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -685,10 +685,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -707,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -718,7 +718,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Zach Edey</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
     <t>Amen Thompson</t>
   </si>
   <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
     <t>Jonathan Kuminga</t>
   </si>
   <si>
@@ -79,70 +79,67 @@
     <t>Zion Williamson</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
@@ -542,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -553,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -564,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -575,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -586,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,7 +608,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -652,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -666,7 +663,7 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -677,7 +674,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -685,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -696,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -707,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -718,10 +715,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,130 +25,124 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Zach Edey</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Paul George</t>
   </si>
   <si>
     <t>P.J. Washington</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Zach Edey</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -531,7 +525,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -652,7 +646,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,10 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,124 +25,124 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Kyshawn George</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
+    <t>Ivica Zubac</t>
   </si>
   <si>
     <t>Zion Williamson</t>
   </si>
   <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Zach Edey</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
-    <t>James Harden</t>
+    <t>Jonathan Kuminga</t>
   </si>
   <si>
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
+    <t>PG,SG,SF</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
   </si>
 </sst>
 </file>
@@ -555,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,121 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Moussa Diabate</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Kyshawn George</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
+    <t>Anthony Edwards</t>
   </si>
   <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Bobby Portis</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -643,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -687,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Zach Edey</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
     <t>Keyonte George</t>
   </si>
   <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
     <t>Draymond Green</t>
   </si>
   <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Bobby Portis</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Moussa Diabate</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
@@ -79,15 +79,18 @@
     <t>RJ Barrett</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
@@ -97,49 +100,46 @@
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +657,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -687,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,7 +701,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,6 +25,9 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
@@ -58,33 +61,30 @@
     <t>Ivica Zubac</t>
   </si>
   <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Bobby Portis</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
+    <t>PG,SG</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -97,10 +97,13 @@
     <t>C</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>Utah Jazz</t>
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
@@ -130,19 +133,16 @@
     <t>Memphis Grizzlies</t>
   </si>
   <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -698,10 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
     <t>Keyonte George</t>
   </si>
   <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
-    <t>James Harden</t>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Paul George</t>
   </si>
   <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Zach Edey</t>
-  </si>
-  <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Bobby Portis</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
@@ -82,64 +82,64 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
-    <t>LA Clippers</t>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
     <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -577,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +635,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,7 +690,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -40,27 +40,27 @@
     <t>Jayson Tatum</t>
   </si>
   <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Bobby Portis</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
     <t>Paul George</t>
   </si>
   <si>
@@ -91,13 +91,13 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
@@ -580,7 +580,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -687,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Draymond Green</t>
   </si>
   <si>
-    <t>Bobby Portis</t>
-  </si>
-  <si>
     <t>Nicolas Claxton</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
+    <t>Josh Green</t>
+  </si>
+  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
@@ -127,19 +127,22 @@
     <t>Golden State Warriors</t>
   </si>
   <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
     <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
@@ -621,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -632,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -665,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -676,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -712,7 +715,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,58 +25,61 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Jose Alvarado</t>
+    <t>Paul George</t>
   </si>
   <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Josh Green</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
   </si>
   <si>
     <t>PG,SG</t>
@@ -85,7 +88,10 @@
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>SF,PF</t>
@@ -94,58 +100,46 @@
     <t>SG,SF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
   </si>
 </sst>
 </file>
@@ -503,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,7 +555,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,7 +566,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -624,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -635,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,7 +643,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -668,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -679,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,21 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Jose Alvarado</t>
   </si>
   <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
@@ -37,48 +40,45 @@
     <t>Amen Thompson</t>
   </si>
   <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>Paul George</t>
-  </si>
-  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
@@ -97,12 +97,12 @@
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
@@ -112,34 +112,28 @@
     <t>Houston Rockets</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
   </si>
 </sst>
 </file>
@@ -497,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,7 +571,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,7 +604,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,21 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,115 +25,118 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
     <t>Jose Alvarado</t>
   </si>
   <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
+    <t>Giannis Antetokounmpo</t>
   </si>
   <si>
     <t>Amen Thompson</t>
   </si>
   <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +563,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +681,21 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
-        <v>31</v>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,118 +25,118 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
     <t>Keyonte George</t>
   </si>
   <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
+    <t>Amen Thompson</t>
   </si>
   <si>
     <t>Paul George</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
     <t>Donte DiVincenzo</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Utah Jazz</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
+    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -607,7 +607,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,7 +618,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -648,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -670,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -681,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -31,63 +31,63 @@
     <t>Anthony Edwards</t>
   </si>
   <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -106,37 +106,37 @@
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,7 +563,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +574,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +585,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -615,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +662,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,7 +673,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,118 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Jose Alvarado</t>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
   </si>
   <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
+    <t>Zion Williamson</t>
   </si>
   <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
+    <t>Fred VanVleet</t>
   </si>
   <si>
     <t>Paul George</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +610,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -25,121 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
+    <t>Amen Thompson</t>
   </si>
   <si>
     <t>Quentin Grimes</t>
   </si>
   <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
+    <t>Paul George</t>
   </si>
   <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
-    <t>Paul George</t>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>PG,SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
+    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
     <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -563,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -585,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -618,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,7 +632,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -673,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,115 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Aaron Wiggins</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
     <t>Keyonte George</t>
   </si>
   <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
     <t>Quentin Grimes</t>
   </si>
   <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
     <t>Paul George</t>
   </si>
   <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
+    <t>PG,SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
+    <t>C</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>PG,SG,SF,PF</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
     <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
@@ -497,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,7 +550,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,7 +572,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -607,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -640,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +701,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
     <t>Amen Thompson</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Aaron Wiggins</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
@@ -79,70 +79,73 @@
     <t>Paul George</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>PG,SG,SF,PF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Memphis Grizzlies</t>
@@ -528,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,7 +542,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,7 +575,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,10 +715,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/LOS Galacticos.xlsx
+++ b/yahoo/LOS Galacticos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -31,51 +31,51 @@
     <t>Bradley Beal</t>
   </si>
   <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>Keyonte George</t>
+    <t>Ivica Zubac</t>
   </si>
   <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
     <t>Donte DiVincenzo</t>
   </si>
   <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
     <t>Amen Thompson</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
     <t>Paul George</t>
   </si>
   <si>
@@ -85,67 +85,64 @@
     <t>PG,SG,SF</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF,C</t>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>PG,SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Memphis Grizzlies</t>
@@ -561,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
@@ -572,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -583,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -594,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -671,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -682,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
